--- a/medicine/Psychotrope/Bürgerbräukeller/Bürgerbräukeller.xlsx
+++ b/medicine/Psychotrope/Bürgerbräukeller/Bürgerbräukeller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%BCrgerbr%C3%A4ukeller</t>
+          <t>Bürgerbräukeller</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Bürgerbräukeller (en traduction littérale, la « cave à bière du citoyen ») était une brasserie allemande située à Munich où se tenaient certaines réunions du Parti national-socialiste des travailleurs allemands, l'autre brasserie utilisée était la Hofbräuhaus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%BCrgerbr%C3%A4ukeller</t>
+          <t>Bürgerbräukeller</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est à la Bürgerbräukeller que commence le célèbre putsch de la Brasserie mené par Adolf Hitler le 8 novembre 1923, ce qui conduit le futur dictateur en prison jusqu'à la fin de l’année 1924[a].
 C'est dans cette salle que l'attentat contre Hitler préparé par Georg Elser échoue le 8 novembre 1939, à treize minutes près : Hitler a prononcé son discours de commémoration du putsch de 1923 et vient de quitter les lieux, quand la bombe artisanale de Elser explose. Huit personnes sont tuées et une soixantaine blessées ; la brasserie est gravement endommagée mais non reconstruite.
